--- a/data/stationData2.xlsx
+++ b/data/stationData2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaratasD\Desktop\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaratasD\Desktop\pyDev\AccelerationDataAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B64EFE-E093-4750-B055-44F89D90B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4637EE-3360-44E4-9A5E-5EF8A56728E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -101,45 +101,6 @@
     <t>0124</t>
   </si>
   <si>
-    <t>0213</t>
-  </si>
-  <si>
-    <t>0209</t>
-  </si>
-  <si>
-    <t>0205</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2715</t>
-  </si>
-  <si>
-    <t>2703</t>
-  </si>
-  <si>
-    <t>2704</t>
-  </si>
-  <si>
-    <t>2718</t>
-  </si>
-  <si>
     <t>3140</t>
   </si>
   <si>
@@ -276,15 +237,6 @@
   </si>
   <si>
     <t>Adana</t>
-  </si>
-  <si>
-    <t>Adiyaman</t>
-  </si>
-  <si>
-    <t>Diyarbakir</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
   </si>
   <si>
     <t>Hatay</t>
@@ -340,7 +292,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -681,13 +633,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -717,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>37.250287</v>
@@ -738,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>37.816183000000002</v>
@@ -752,14 +707,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A62" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>37.855891999999997</v>
@@ -780,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>37.745494999999998</v>
@@ -801,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>37.74427</v>
@@ -822,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>38.259194999999998</v>
@@ -843,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>37.251860000000001</v>
@@ -864,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>37.704858000000002</v>
@@ -885,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>37.400942999999998</v>
@@ -906,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>37.015189999999997</v>
@@ -927,7 +882,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>37.036160000000002</v>
@@ -948,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>36.567999999999998</v>
@@ -969,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>36.770060000000001</v>
@@ -990,7 +945,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>37.433900000000001</v>
@@ -1011,7 +966,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>37.00338</v>
@@ -1032,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>37.408700000000003</v>
@@ -1053,16 +1008,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>37.796669999999999</v>
+        <v>36.08155</v>
       </c>
       <c r="E18">
-        <v>37.929569999999998</v>
+        <v>35.949820000000003</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,16 +1029,16 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>37.577629999999999</v>
+        <v>36.372599999999998</v>
       </c>
       <c r="E19">
-        <v>38.482509999999998</v>
+        <v>36.219729999999998</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,16 +1050,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>37.79177</v>
+        <v>36.115929999999999</v>
       </c>
       <c r="E20">
-        <v>38.615969999999997</v>
+        <v>36.247219999999999</v>
       </c>
       <c r="F20">
-        <v>660</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,16 +1071,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>38.264400000000002</v>
+        <v>36.583829999999999</v>
       </c>
       <c r="E21">
-        <v>39.759</v>
+        <v>36.414389999999997</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,16 +1092,16 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>38.461599999999997</v>
+        <v>36.238700000000001</v>
       </c>
       <c r="E22">
-        <v>40.646999999999998</v>
+        <v>36.172199999999997</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,16 +1113,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>37.94406</v>
+        <v>36.827629999999999</v>
       </c>
       <c r="E23">
-        <v>40.312739999999998</v>
+        <v>36.20485</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,16 +1134,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>38.487760000000002</v>
+        <v>36.848906999999997</v>
       </c>
       <c r="E24">
-        <v>41.002003000000002</v>
+        <v>36.557138000000002</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,16 +1155,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>37.930880000000002</v>
+        <v>36.19117</v>
       </c>
       <c r="E25">
-        <v>40.202779999999997</v>
+        <v>36.134300000000003</v>
       </c>
       <c r="F25">
-        <v>519</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,16 +1176,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>38.145940000000003</v>
+        <v>36.238079999999997</v>
       </c>
       <c r="E26">
-        <v>39.483789999999999</v>
+        <v>36.132640000000002</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,16 +1197,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>36.855364000000002</v>
+        <v>36.408859999999997</v>
       </c>
       <c r="E27">
-        <v>36.685617999999998</v>
+        <v>35.883099999999999</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,16 +1218,16 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D28">
-        <v>37.058</v>
+        <v>36.214230000000001</v>
       </c>
       <c r="E28">
-        <v>37.35</v>
+        <v>36.159730000000003</v>
       </c>
       <c r="F28">
-        <v>758</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,16 +1239,16 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>37.008789999999998</v>
+        <v>36.756909999999998</v>
       </c>
       <c r="E29">
-        <v>37.802149999999997</v>
+        <v>36.485742000000002</v>
       </c>
       <c r="F29">
-        <v>721</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,16 +1260,16 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>37.007770000000001</v>
+        <v>36.497970000000002</v>
       </c>
       <c r="E30">
-        <v>36.626600000000003</v>
+        <v>36.366120000000002</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,16 +1281,16 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>36.08155</v>
+        <v>36.802619999999997</v>
       </c>
       <c r="E31">
-        <v>35.949820000000003</v>
+        <v>36.511189999999999</v>
       </c>
       <c r="F31">
-        <v>210</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,16 +1302,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>36.372599999999998</v>
+        <v>36.692929999999997</v>
       </c>
       <c r="E32">
-        <v>36.219729999999998</v>
+        <v>36.488520000000001</v>
       </c>
       <c r="F32">
-        <v>338</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,16 +1323,16 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D33">
-        <v>36.115929999999999</v>
+        <v>35.902361999999997</v>
       </c>
       <c r="E33">
-        <v>36.247219999999999</v>
+        <v>36.064357999999999</v>
       </c>
       <c r="F33">
-        <v>344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,16 +1344,16 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D34">
-        <v>36.583829999999999</v>
+        <v>36.490758</v>
       </c>
       <c r="E34">
-        <v>36.414389999999997</v>
+        <v>36.226951999999997</v>
       </c>
       <c r="F34">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,16 +1365,16 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D35">
-        <v>36.238700000000001</v>
+        <v>36.546340000000001</v>
       </c>
       <c r="E35">
-        <v>36.172199999999997</v>
+        <v>36.164589999999997</v>
       </c>
       <c r="F35">
-        <v>283</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,16 +1386,16 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>36.827629999999999</v>
+        <v>36.61618</v>
       </c>
       <c r="E36">
-        <v>36.20485</v>
+        <v>36.206609999999998</v>
       </c>
       <c r="F36">
-        <v>374</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,16 +1407,16 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D37">
-        <v>36.848906999999997</v>
+        <v>36.708799999999997</v>
       </c>
       <c r="E37">
-        <v>36.557138000000002</v>
+        <v>37.112299999999998</v>
       </c>
       <c r="F37">
-        <v>444</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,16 +1428,16 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D38">
-        <v>36.19117</v>
+        <v>38.596850000000003</v>
       </c>
       <c r="E38">
-        <v>36.134300000000003</v>
+        <v>38.18385</v>
       </c>
       <c r="F38">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,16 +1449,16 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>36.238079999999997</v>
+        <v>38.866770000000002</v>
       </c>
       <c r="E39">
-        <v>36.132640000000002</v>
+        <v>37.679000000000002</v>
       </c>
       <c r="F39">
-        <v>448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,16 +1470,16 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D40">
-        <v>36.408859999999997</v>
+        <v>38.096159999999998</v>
       </c>
       <c r="E40">
-        <v>35.883099999999999</v>
+        <v>37.887320000000003</v>
       </c>
       <c r="F40">
-        <v>460</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,16 +1491,16 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>36.214230000000001</v>
+        <v>38.560630000000003</v>
       </c>
       <c r="E41">
-        <v>36.159730000000003</v>
+        <v>37.490760000000002</v>
       </c>
       <c r="F41">
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,16 +1512,16 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>36.756909999999998</v>
+        <v>38.313533</v>
       </c>
       <c r="E42">
-        <v>36.485742000000002</v>
+        <v>39.039341999999998</v>
       </c>
       <c r="F42">
-        <v>485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,16 +1533,16 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D43">
-        <v>36.497970000000002</v>
+        <v>38.406947000000002</v>
       </c>
       <c r="E43">
-        <v>36.366120000000002</v>
+        <v>38.754133000000003</v>
       </c>
       <c r="F43">
-        <v>539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,16 +1554,16 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D44">
-        <v>36.802619999999997</v>
+        <v>38.195880000000002</v>
       </c>
       <c r="E44">
-        <v>36.511189999999999</v>
+        <v>38.873849999999997</v>
       </c>
       <c r="F44">
-        <v>618</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,16 +1575,16 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>36.692929999999997</v>
+        <v>38.810699999999997</v>
       </c>
       <c r="E45">
-        <v>36.488520000000001</v>
+        <v>37.939599999999999</v>
       </c>
       <c r="F45">
-        <v>688</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,16 +1596,16 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D46">
-        <v>35.902361999999997</v>
+        <v>38.343879999999999</v>
       </c>
       <c r="E46">
-        <v>36.064357999999999</v>
+        <v>37.973779999999998</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,16 +1617,16 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D47">
-        <v>36.490758</v>
+        <v>38.241197999999997</v>
       </c>
       <c r="E47">
-        <v>36.226951999999997</v>
+        <v>36.922804999999997</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,16 +1638,16 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D48">
-        <v>36.546340000000001</v>
+        <v>37.747199999999999</v>
       </c>
       <c r="E48">
-        <v>36.164589999999997</v>
+        <v>37.284260000000003</v>
       </c>
       <c r="F48">
-        <v>424</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,16 +1659,16 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>36.61618</v>
+        <v>38.023949999999999</v>
       </c>
       <c r="E49">
-        <v>36.206609999999998</v>
+        <v>36.481870000000001</v>
       </c>
       <c r="F49">
-        <v>870</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,16 +1680,16 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D50">
-        <v>36.708799999999997</v>
+        <v>37.37547</v>
       </c>
       <c r="E50">
-        <v>37.112299999999998</v>
+        <v>36.838360000000002</v>
       </c>
       <c r="F50">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,16 +1701,16 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>38.596850000000003</v>
+        <v>37.386760000000002</v>
       </c>
       <c r="E51">
-        <v>38.18385</v>
+        <v>37.138030000000001</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,16 +1722,16 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>38.866770000000002</v>
+        <v>37.485129999999998</v>
       </c>
       <c r="E52">
-        <v>37.679000000000002</v>
+        <v>37.297750000000001</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,16 +1743,16 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D53">
-        <v>38.096159999999998</v>
+        <v>37.570099999999996</v>
       </c>
       <c r="E53">
-        <v>37.887320000000003</v>
+        <v>36.357370000000003</v>
       </c>
       <c r="F53">
-        <v>654</v>
+        <v>998</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,16 +1764,16 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>38.560630000000003</v>
+        <v>37.585509999999999</v>
       </c>
       <c r="E54">
-        <v>37.490760000000002</v>
+        <v>36.830300000000001</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1830,16 +1785,16 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D55">
-        <v>38.313533</v>
+        <v>37.585680000000004</v>
       </c>
       <c r="E55">
-        <v>39.039341999999998</v>
+        <v>36.898449999999997</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,16 +1806,16 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D56">
-        <v>38.406947000000002</v>
+        <v>37.966324999999998</v>
       </c>
       <c r="E56">
-        <v>38.754133000000003</v>
+        <v>37.427652999999999</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,16 +1827,16 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D57">
-        <v>38.195880000000002</v>
+        <v>37.536099999999998</v>
       </c>
       <c r="E57">
-        <v>38.873849999999997</v>
+        <v>36.917650000000002</v>
       </c>
       <c r="F57">
-        <v>1380</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,16 +1848,16 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D58">
-        <v>38.810699999999997</v>
+        <v>36.727694999999997</v>
       </c>
       <c r="E58">
-        <v>37.939599999999999</v>
+        <v>38.947000000000003</v>
       </c>
       <c r="F58">
-        <v>579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,16 +1869,16 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D59">
-        <v>38.343879999999999</v>
+        <v>37.234200000000001</v>
       </c>
       <c r="E59">
-        <v>37.973779999999998</v>
+        <v>39.750900000000001</v>
       </c>
       <c r="F59">
-        <v>815</v>
+        <v>936</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,16 +1890,16 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>38.241197999999997</v>
+        <v>37.752400000000002</v>
       </c>
       <c r="E60">
-        <v>36.922804999999997</v>
+        <v>39.329099999999997</v>
       </c>
       <c r="F60">
-        <v>186</v>
+        <v>986</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,16 +1911,16 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D61">
-        <v>37.747199999999999</v>
+        <v>37.08417</v>
       </c>
       <c r="E61">
-        <v>37.284260000000003</v>
+        <v>36.269359999999999</v>
       </c>
       <c r="F61">
-        <v>731</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,288 +1932,15 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D62">
-        <v>38.023949999999999</v>
+        <v>37.191560000000003</v>
       </c>
       <c r="E62">
-        <v>36.481870000000001</v>
+        <v>36.561950000000003</v>
       </c>
       <c r="F62">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63">
-        <v>37.37547</v>
-      </c>
-      <c r="E63">
-        <v>36.838360000000002</v>
-      </c>
-      <c r="F63">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64">
-        <v>37.386760000000002</v>
-      </c>
-      <c r="E64">
-        <v>37.138030000000001</v>
-      </c>
-      <c r="F64">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65">
-        <v>37.485129999999998</v>
-      </c>
-      <c r="E65">
-        <v>37.297750000000001</v>
-      </c>
-      <c r="F65">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66">
-        <v>37.570099999999996</v>
-      </c>
-      <c r="E66">
-        <v>36.357370000000003</v>
-      </c>
-      <c r="F66">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67">
-        <v>37.585509999999999</v>
-      </c>
-      <c r="E67">
-        <v>36.830300000000001</v>
-      </c>
-      <c r="F67">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" ref="A68:A75" si="1">A67+1</f>
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68">
-        <v>37.585680000000004</v>
-      </c>
-      <c r="E68">
-        <v>36.898449999999997</v>
-      </c>
-      <c r="F68">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69">
-        <v>37.966324999999998</v>
-      </c>
-      <c r="E69">
-        <v>37.427652999999999</v>
-      </c>
-      <c r="F69">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70">
-        <v>37.536099999999998</v>
-      </c>
-      <c r="E70">
-        <v>36.917650000000002</v>
-      </c>
-      <c r="F70">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71">
-        <v>36.727694999999997</v>
-      </c>
-      <c r="E71">
-        <v>38.947000000000003</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72">
-        <v>37.234200000000001</v>
-      </c>
-      <c r="E72">
-        <v>39.750900000000001</v>
-      </c>
-      <c r="F72">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73">
-        <v>37.752400000000002</v>
-      </c>
-      <c r="E73">
-        <v>39.329099999999997</v>
-      </c>
-      <c r="F73">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74">
-        <v>37.08417</v>
-      </c>
-      <c r="E74">
-        <v>36.269359999999999</v>
-      </c>
-      <c r="F74">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75">
-        <v>37.191560000000003</v>
-      </c>
-      <c r="E75">
-        <v>36.561950000000003</v>
-      </c>
-      <c r="F75">
         <v>430</v>
       </c>
     </row>
